--- a/DOM_Banner/output/dept0713/Julia H Indik_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Julia H Indik_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,80 +447,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mina K. Chung, Kristen K. Patton, Chu‐Pak Lau, Alexander Romeno Janner Dal Forno, Sana M. Al‐Khatib, Vanita Arora, Ulrika Birgersdotter‐Green, Yong‐Mei Cha, Eugene H. Chung, Edmond M. Cronin, Anne B. Curtis, Iwona Cygankiewicz, Gopi Dandamudi, Anne M. Dubin, Douglas P. Ensch, Taya V. Glotzer, Michael R. Gold, Zachary D. Goldberger, Rakesh Gopinathannair, Eiran Z. Gorodeski, Alejandra Gutiérrez, Juan C. Guzmán, Weijian Huang, Peter B. Imrey, Julia H. Indik, Saima Karim, Peter P. Karpawich, Yaariv Khaykin, Erich L. Kiehl, Jordana Kron, Valentina Kutyifa, Mark S. Link, Joseph E. Marine, Wilfried Mullens, Seung Jung Park, Ratika Parkash, Manuel Patete, Rajeev K. Pathak, Carlos Perona, John Rickard, Mark H. Schoenfeld, Swee‐Chong Seow, Win‐Kuang Shen, Morio Shoda, Jagmeet P. Singh, David J. Slotwiner, Arun Raghav Mahankali Sridhar, Uma N Srivatsa, Eric C. Stecker, Tanyanan Tanawuttiwat, W.H. Wilson Tang, Carlos Andres Tapias, Cynthia M. Tracy, Gaurav A. Upadhyay, Niraj Varma, Kevin Vernooy, Pugazhendhi Vijayaraman, Sarah Ann Worsnick, Wojciech Zaręba, Emily P. Zeitler</t>
+          <t>Mina K. Chung, Kristen K. Patton, Chu‐Pak Lau, Alexander Romeno Janner Dal Forno, Sana M. Al‐Khatib, Vanita Arora, Ulrika Birgersdotter‐Green, Yong‐Mei Cha, Eugene H. Chung, Edmond M. Cronin, Anne B. Curtis, Iwona Cygankiewicz, Gopi Dandamudi, Anne M. Dubin, Douglas P. Ensch, Taya V. Glotzer, Michael R. Gold, Zachary D. Goldberger, Rakesh Gopinathannair, Eiran Z. Gorodeski, Alejandra Gutiérrez, Juan C. Guzmán, Weijian Huang, Peter B. Imrey, Julia H. Indik, Saima Karim, Peter P. Karpawich, Yaariv Khaykin, Erich L. Kiehl, Jordana Kron, Valentina Kutyifa, Mark S. Link, Joseph E. Marine, Wilfried Mullens, Seung Jung Park, Ratika Parkash, Manuel Patete, Rajeev K. Pathak, Carlos Perona, John Rickard, Mark H. Schoenfeld, Swee‐Chong Seow, Win–Kuang Shen, Morio Shoda, Jagmeet P. Singh, David J. Slotwiner, Arun Raghav Mahankali Sridhar, Uma N Srivatsa, Eric C. Stecker, Tanyanan Tanawuttiwat, W.H. Wilson Tang, Carlos Andres Tapias, Cynthia M. Tracy, Gaurav A. Upadhyay, Niraj Varma, Kevin Vernooy, Pugazhendhi Vijayaraman, Sarah Ann Worsnick, Wojciech Zaręba, Emily P. Zeitler</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Cleveland Clinic, Cleveland, Ohio; University of Washington, Seattle, Washington; University of Hong Kong, Hong Kong, China; Hospital SOS Cárdio, Florianópolis, Brazil; Duke University Medical Center, Durham, North Carolina; Indraprastha Apollo Hospital, New Delhi, India; University of California San Diego Health, La Jolla, California; Mayo Clinic, Rochester, Minnesota; University of Michigan Medical School, Ann Arbor, Michigan; Temple University, Philadelphia, Pennsylvania; University at Buffalo, Buffalo, New York; Medical University of Łódź, Łódź, Poland; Virginia Mason Franciscan Health, Tacoma, Washington; Stanford University, Pediatric Cardiology, Palo Alto, California; Cleveland Clinic, Cleveland, Ohio; Hackensack Meridian School of Medicine, Hackensack, New Jersey; Medical University of South Carolina, Charleston, South Carolina; University of Wisconsin School of Medicine and Public Health, Madison, Wisconsin; Kansas City Heart Rhythm Institute, Overland Park, Kansas; University Hospitals and Case Western Reserve University School of Medicine, Cleveland, Ohio; University of Minnesota, Minneapolis, Minnesota; McMaster University, Hamilton, Ontario, Canada; First Affiliated Hospital of Wenzhou Medical University, Wenzhou, China; Case Western Reserve University, Cleveland, Ohio; Cleveland Clinic, Cleveland, Ohio; University of Arizona, Sarver Heart Center, Tucson, Arizona; MetroHealth Medical Center, Case Western Reserve University, Cleveland, Ohio; The Children’s Hospital of Michigan, Central Michigan University, Detroit, Michigan; Southlake Regional Health Center, Newmarket, Ontario, Canada; Sentara, Norfolk, Virginia; Virginia Commonwealth University, Richmond, Virginia; University of Rochester Medical Center, Rochester, New York; University of Texas Southwestern Medical Center, Dallas, Texas; Johns Hopkins University School of Medicine, Baltimore, Maryland; Ziekenhuis Oost-Limburg Genk, Belgium and Hasselt University, Hasselt, Belgium; Sungkyunkwan University School of Medicine, Samsung Medical Center, Seoul, Republic of Korea; QEII Health Sciences Center, Halifax, Nova Scotia, Canada; Clinica Corazones Unidos, Santo Domingo, Dominican Republic; Australian National University, Canberra Hospital, Garran, Australian Capital Territory, Australia; Santojanni Hospital, Buenos Aires, Argentina; Cleveland Clinic, Cleveland, Ohio; Yale University School of Medicine, New Haven, Connecticut; National University Hospital Singapore, Singapore; Mayo Clinic, Phoenix, Arizona; Tokyo Women’s Medical University, Tokyo, Japan; Massachusetts General Hospital, Harvard Medical School, Boston, Massachusetts; Weill Cornell Medicine Population Health Sciences, New York, New York; University of Washington, Seattle, Washington; University of California Davis, Sacramento, California; Oregon Health &amp; Science University, Portland, Oregon; Indiana University, Indianapolis, Indiana; Cleveland Clinic, Cleveland, Ohio; Fundación Cardioinfantil Instituto de Cardiologia, Bogotá, Colombia; George Washington University, Washington, District of Columbia; University of Chicago Medicine, Chicago, Illinois; Cleveland Clinic, Cleveland, Ohio; Cardiovascular Research Institute Maastricht, Maastricht University Medical Center, Maastricht, The Netherlands; Geisinger Health System, Wilkes-Barre, Pennsylvania; Geisinger Health System, Wilkes-Barre, Pennsylvania; University of Rochester Medical Center, Rochester, New York; Dartmouth Hitchcock Medical Center, Lebanon, New Hampshire</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377142171</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>2023 HRS/APHRS/LAHRS guideline on cardiac physiologic pacing for the avoidance and mitigation of heart failure</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Heart Rhythm</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2023.03.1538</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37283271</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2023.03.1538</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Center for Academic Medicine, Department of Medicine/Division of Cardiovascular Medicine, Stanford University School of Medicine, 453 Quarry Road, Palo Alto, CA, 94304, USA. aperino@stanford.edu.; Center for Academic Medicine, Department of Medicine/Division of Cardiovascular Medicine, Stanford University School of Medicine, Palo Alto, USA; Emory University School of Medicine, Atlanta, USA; Santa Maria Della Misericordia General Hospital, Perugia, Italy; The University of Tokyo, Tokyo, Japan; University Hospital Coventry, Conventry, UK; Hospital Universitario Infanta Leonor, Madrid, Spain; Kyorin University School of Medicine, Mitaka, Japan; Yeditepe University Hospital, Istanbul, Turkey; School of Mdeicine, Jagiellonian University, Krakow, Poland; Hippokration General Hospital, Athens, Greece; Baylor University Medical Center, Dallas, USA; The John Paul II Hospital, Krakow, Poland; West China Hospital, Sichuan University, Chengdu, China; Lifespan Cardiovascular Institute, Brown University, Providence, USA; Sree Chitra Institute for Medical Sciences and Technology, Thiruvananthapuram, India; University Hospital of Poitiers, Poitiers, France; Holy Family Hospital, New Delhi, India; University Hospital Ghent, Ghent, Belgium; Cardioangiologic Centre Bethanien, Frankfurt, Germany; University of North Carolina School of Medicine, Chapel Hill, USA; Centro de Investigaciones Biomédicas en RED en Enfermedades Cardiovasculares (CIBERCV), Madrid, Spain; Hospital Universitari I Politècnic La Fe, Valencia, Spain; Ente Ecclesiastico Ospedale Miulli, Acquaviva Delle Fonti BA, Italy; Xiamen Cardiovascular Hospital, Xiamen, China; University Hospital Freiburg, Freiburg, Germany; Krannert Institute of Cardiology, Indiana University, Avon, USA; Hospital General Universitario Gregorio Marañon, Madrid, Spain; University of Calgary, Calgary, Canada; Monash Health, Melbourne, Australia; University of California San Diego Health System, San Diego, USA; Hospital HM Monteprincipe, Madrid, Spain; Princess of Wales Hospital, Bridgend, UK; ARNAS Civico Hospital, Palermo, Italy; Nagoya University Graduate School of Medicine, Nagoya, Japan; University of Arizona College of Medicine, Tucson, USA; First Affiliated Hospital of Nanjing Medical University, Jiangsu Provincial Hospital, Nanjing, China; Oregon Heart Center, Salem, USA; University Hospital, Madrid, Spain; China Medical University Hospital, Taichung, Taiwan; School of Medicine, China Medical University, Taichung, Taiwan; National Medical Research Center. VA Almazov, Saint Petersburg, Russia; School of Medicine and Public Health, University of Wisconsin, Madison, USA; Bern University Hospital, Bern, Switzerland; SOS Cardio-Cardiology Hospital Center, Florianópolis, Brazil; Steward St.Elizabeth’s Medical Center, Boston, USA; Hospital Universitario Virgen del Rocío, Seville, Spain; Hospital Alvaro Cunqueiro, Vigo, Spain; Beacon Hospital, Dublin, Ireland; Aston University, Birmingham, UK; Queen Elizabeth Hospital, Birmingham, UK; Hospital Clínic de Barcelona, Universitat de Barcelona, Barcelona, Spain; Caen University Hospital, Caen, France; San Raffaele Scientific Institute, Segrate, Italy; Azienda Ospedaliero Universitaria Di Ferrara, Cona, Italy; University of Arkansas Medical Sciences, Little Rock, USA; Ospedale Luigi Sacco, Milan, Italy; Onassis Cardiac Surgery Center, Kallithea, Greece; Southlake Regional Health Centre, Newmarket, Canada; Children’s National Hospital, Washington, USA; Krishna Institute of Medical Sciences, Karad, India; Cardiocenter, 3Rd Faculty of Medicine, Charles University, Prague, Czechia; Lewis Katz School of Medicine at, Temple University, Philadelphia, USA; Medical College, University of Rzeszów, Rzeszów, Poland; St. Joseph’s Heart Rhythm Center, Rzeszów, Poland; Columbia University, New York, USA; Azienda Ospedaliera Universitaria Senese, Siena, Italy; University of Siena, Siena, Italy; University Hospital Germans Trias I Pujol, Barcelona, Spain; Marche Polytechnic University, Ancona, Italy; New York-Presbyterian Brooklyn Methodist Hospital, New York, USA; UMass Memorial Health Cancer Center, Worcester, USA; University of Utah School of Medicine, Salt Lake City, USA; Poznań University of Medical Sciences, Poznań, Poland; University of Tours, Tours, France; Mayo Clinic, Rochester, USA; Kaohsiung Chang Gung Memorial Hospital, Kaohsiung, Taiwan; University Hospital of Rennes, Rennes, France; Hospital of the University of Pennsylvania, Philadelphia, USA; Royal Brompton Hospital, London, UK; Fujita Health University, Toyoake, Japan; Shanghai General Hospital, Shanghai, China; National Cerebral and Cardiovascular Center, Suita, Japan; University Hospital Heidelberg, Heidelberg, Germany; Hospital Salud Integral, Managua, Nicaragua; University of Nebraska Medical Center, Omaha, USA; Kumamoto University Hospital, Kumamoto, Japan; University of Pittsburgh, Pittsburgh, USA; Kobari General Hospital, Noda, Japan; Kyoto-Katsura Hospital, Kyoto, Japan; Ochsner Medical Center, New Orleans, USA; Ankara City Hospital, Ankara, Turkey; IRCCS San Raffaele Hospital, Segrate, Italy; Universitätsklinikum Ulm (Ulm University Medical Center), Ulm, Germany; Royal Papworth Hospital NHS Trust, Cambridge, UK; Geisinger Heart Institute, Danville, USA; Rush University Medical Center, Chicago, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313641427</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Worldwide survey on implantation of and outcomes for conduction system pacing with His bundle and left bundle branch area pacing leads</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Interventional Cardiac Electrophysiology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10840-022-01417-4</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36607529</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10840-022-01417-4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377015992</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>CE-452779-3 RANDOMIZED PLACEBO-CONTROLLED TRIAL OF FLECAINIDE IN PATIENTS WITH ARRHYTHMOGENIC RIGHT VENTRICULAR CARDIOMYOPATHY</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Heart Rhythm</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2023.03.246</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2023.03.246</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mina K. Chung, Kristen K. Patton, Chu‐Pak Lau, Alexander Romeno Janner Dal Forno, Sana M. Al‐Khatib, Vanita Arora, Ulrika Birgersdotter‐Green, Yong‐Mei Cha, Eugene H. Chung, Edmond M. Cronin, Anne B. Curtis, Iwona Cygankiewicz, Gopi Dandamudi, Anne M. Dubin, Douglas P. Ensch, Taya V. Glotzer, Michael R. Gold, Zachary D. Goldberger, Rakesh Gopinathannair, Eiran Z. Gorodeski, Alejandra Gutiérrez, Juan C. Guzmán, Weijian Huang, Peter B. Imrey, Julia H. Indik, Saima Karim, Peter P. Karpawich, Yaariv Khaykin, Erich L. Kiehl, Jordana Kron, Valentina Kutyifa, Mark S. Link, Joseph E. Marine, Wilfried Mullens, Seung‐Jung Park, Ratika Parkash, Manuel Patete, Rajeev K. Pathak, Carlos Perona, John Rickard, Mark H. Schoenfeld, Swee‐Chong Seow, Win‐Kuang Shen, Morio Shoda, Jagmeet P. Singh, David J. Slotwiner, Arun Raghav Mahankali Sridhar, Uma N Srivatsa, Eric C. Stecker, Tanyanan Tanawuttiwat, W.H. Wilson Tang, Carlos Andres Tapias, Cynthia M. Tracy, Gaurav A. Upadhyay, Niraj Varma, Kevin Vernooy, Pugazhendhi Vijayaraman, Sarah Ann Worsnick, Wojciech Zaręba, Emily P. Zeitler</t>
+          <t>Mina K. Chung, Kristen K. Patton, Chu‐Pak Lau, Alexander Romeno Janner Dal Forno, Sana M. Al‐Khatib, Vanita Arora, Ulrika Birgersdotter‐Green, Yong‐Mei Cha, Eugene H. Chung, Edmond M. Cronin, Anne B. Curtis, Iwona Cygankiewicz, Gopi Dandamudi, Anne M. Dubin, Douglas P. Ensch, Taya V. Glotzer, Michael R. Gold, Zachary D. Goldberger, Rakesh Gopinathannair, Eiran Z. Gorodeski, Alejandra Gutiérrez, Juan C. Guzmán, Weijian Huang, Peter B. Imrey, Julia H. Indik, Saima Karim, Peter P. Karpawich, Yaariv Khaykin, Erich L. Kiehl, Jordana Kron, Valentina Kutyifa, Mark S. Link, Joseph E. Marine, Wilfried Mullens, Seung–Jung Park, Ratika Parkash, Manuel Patete, Rajeev K. Pathak, Carlos Perona, John Rickard, Mark H. Schoenfeld, Swee‐Chong Seow, Win–Kuang Shen, Morio Shoda, Jagmeet P. Singh, David J. Slotwiner, Arun Raghav Mahankali Sridhar, Uma N Srivatsa, Eric C. Stecker, Tanyanan Tanawuttiwat, W.H. Wilson Tang, Carlos Andres Tapias, Cynthia M. Tracy, Gaurav A. Upadhyay, Niraj Varma, Kevin Vernooy, Pugazhendhi Vijayaraman, Sarah Ann Worsnick, Wojciech Zaręba, Emily P. Zeitler</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Cleveland Clinic, Cleveland, Ohio, USA; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); University of Washington, Washington, USA; University of Hong Kong, Hong Kong, China; Hospital SOS Cárdio  Florianópolis Brazil; Duke University Medical Center, North Carolina, USA; Representative of the Heart Rhythm Society (HRS); Indraprastha Apollo Hospital, New Delhi, India; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); University of California San Diego Health, California, USA; Mayo Clinic, Rochester, Minnesota, USA; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); University of Michigan Medical School, Ann Arbor, Michigan, USA; Representative of the Heart Rhythm Society (HRS); Temple University, Philadelphia, Pennsylvania, USA; Representative of the Heart Rhythm Society (HRS); University at Buffalo, New York, USA; Medical University of Łódź  Łódź Poland; Representative of the International Society for Holter and Noninvasive Electrocardiology (ISHNE); Representative of the Heart Rhythm Society (HRS); Virginia Mason Franciscan Health, Tacoma, Washington, USA; Representative of the Pediatric and Congenital Electrophysiology Society (PACES); Stanford University, Pediatric Cardiology, Palo Alto, California, USA; Patient partner; Hackensack Meridian School of Medicine, Hackensack, New Jersey, USA; Representative of the Heart Rhythm Society (HRS); Medical University of South Carolina, Charleston, South Carolina, USA; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); University of Wisconsin School of Medicine and Public Health, Madison, Wisconsin, USA; Kansas City Heart Rhythm Institute, Kansas, USA; Representative of the Heart Failure Society of America (HFSA); University Hospitals and Case Western Reserve University School of Medicine, Cleveland, Ohio, USA; Representative of the Heart Rhythm Society (HRS); University of Minnesota, Minneapolis, Minnesota, USA; McMaster University, Hamilton, Ontario, Canada; Representative of the Heart Rhythm Society (HRS); #Representative of the Asia Pacific Heart Rhythm Society (APHRS); First Affiliated Hospital of Wenzhou Medical University, Wenzhou, China; Case Western Reserve University, Cleveland, Ohio, USA; Cleveland Clinic, Cleveland, Ohio, USA; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); University of Arizona, Sarver Heart Center, Tucson, Arizona, USA; MetroHealth Medical Center, Case Western Reserve University, Cleveland, Ohio, USA; Representative of the American Heart Association (AHA); Representative of the Pediatric and Congenital Electrophysiology Society (PACES); The Children's Hospital of Michigan, Central Michigan University, Detroit, Michigan, USA; Representative of the Heart Rhythm Society (HRS); Southlake Regional Health Center, Newmarket, Ontario, Canada; Representative of the Heart Rhythm Society (HRS); Sentara, Norfolk, Virginia, USA; Representative of the Heart Rhythm Society (HRS); Virginia Commonwealth University, Virginia, USA; Representative of the Heart Rhythm Society (HRS); University of Rochester Medical Center, New York, USA; Representative of the Heart Rhythm Society (HRS); University of Texas Southwestern Medical Center, Dallas, Texas, USA; Johns Hopkins University School of Medicine, Baltimore, Maryland, USA; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); Ziekenhuis Oost-Limburg Genk, Belgium and Hasselt University, Hasselt, Belgium; #Representative of the Asia Pacific Heart Rhythm Society (APHRS); Sungkyunkwan University School of Medicine, Samsung Medical Center, Seoul, Republic of Korea; QEII Health Sciences Center, Halifax, Nova Scotia, Canada; Representative of the Heart Rhythm Society (HRS); Clinica Corazones Unidos, Santo Domingo, Dominican Republic; Representative of the Latin American Heart Rhythm Society (LAHRS); #Representative of the Asia Pacific Heart Rhythm Society (APHRS); Australian National University, Canberra Hospital, Garran, Australian Capital Territory, Australia; Representative of the Latin American Heart Rhythm Society (LAHRS); Santojanni Hospital, Buenos Aires, Argentina; Cleveland Clinic, Cleveland, Ohio, USA; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); Yale University School of Medicine, New Haven, Connecticut, USA; #Representative of the Asia Pacific Heart Rhythm Society (APHRS); National University Hospital Singapore, Singapore; Mayo Clinic, Phoenix, Arizona; Mayo Clinic, Phoenix, Arizona; &lt;sup&gt;42&lt;/sup&gt;Tokyo Women's Medical University Tokyo Japan; Representative of the Heart Rhythm Society (HRS); #Representative of the Asia Pacific Heart Rhythm Society (APHRS); Massachusetts General Hospital, Harvard Medical School, Boston, Massachusetts, USA; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); Weill Cornell Medicine Population Health Sciences, New York, New York, USA; Representative of the Heart Rhythm Society (HRS); University of Washington, Washington, USA; Representative of the Heart Rhythm Society (HRS); University of California Davis, California, USA; Oregon Health &amp;amp; Science University, Portland Oregon USA; Representative of the American College of Cardiology (ACC); Indiana University, Indiana; Representative of the Heart Rhythm Society (HRS); Cleveland Clinic, Cleveland, Ohio, USA; Representative of the Heart Failure Society of America (HFSA); Fundación Cardioinfantil Instituto de Cardiologia  Bogotá Colombia; Representative of the Latin American Heart Rhythm Society (LAHRS); George Washington University, Washington, District of Columbia, USA; Representative of the Heart Rhythm Society (HRS); Representative of the Heart Rhythm Society (HRS); University of Chicago Medicine, Chicago, Illinois, USA; Cleveland Clinic, Cleveland, Ohio, USA; Representative of the Heart Rhythm Society (HRS); Cardiovascular Research Institute Maastricht, Maastricht University Medical Center, Maastricht, The Netherlands; Representative of the Heart Rhythm Society (HRS); Geisinger Health System, Wilkes-Barre, Pennsylvania, USA; Representative of the Heart Rhythm Society (HRS); Geisinger Health System, Wilkes-Barre, Pennsylvania, USA; Representative of the Heart Rhythm Society (HRS); Representative of the International Society for Holter and Noninvasive Electrocardiology (ISHNE); University of Rochester Medical Center, New York, USA; Dartmouth Hitchcock Medical Center, Lebanon, New Hampshire, USA; Representative of the Heart Rhythm Society (HRS)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377157699</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2023 &lt;scp&gt;HRS&lt;/scp&gt;/&lt;scp&gt;APHRS&lt;/scp&gt;/&lt;scp&gt;LAHRS&lt;/scp&gt; guideline on cardiac physiologic pacing for the avoidance and mitigation of heart failure</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Arrhythmia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/joa3.12872</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37799799</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/joa3.12872</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323034433</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>RECOGNIZING MACROSCOPIC T WAVE ALTERNANS AS A PREDICTOR OF TORSADES DE POINTES ARREST</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)03249-7</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)03249-7</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, Arizona; Johns Hopkins Hospital, Baltimore, Maryland</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321787357</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Frank Marcus (March 23, 1928–December 21, 2022)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Heart Rhythm</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2023.01.015</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36842791</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2023.01.015</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366351470</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rhythm Control Treatment for Atrial Fibrillation Is Not Just for the Healthy</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Circulation: Arrhythmia and Electrophysiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circep.123.011949</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37073732</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circep.123.011949</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1019,77 +1059,77 @@
           <t>Julia H. Indik</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://openalex.org/W4386226754</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Introducing the 2023 HRS/APHRS/LAHRS guideline on cardiac physiologic pacing for the avoidance and mitigation of heart failure: Are we entering a new age in pacing?</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Heart Rhythm O2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hroo.2023.08.002</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37744941</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hroo.2023.08.002</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Julia H Indik_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Julia H Indik_2023.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mina K. Chung, Kristen K. Patton, Chu‐Pak Lau, Alexander Romeno Janner Dal Forno, Sana M. Al‐Khatib, Vanita Arora, Ulrika Birgersdotter‐Green, Yong‐Mei Cha, Eugene H. Chung, Edmond M. Cronin, Anne B. Curtis, Iwona Cygankiewicz, Gopi Dandamudi, Anne M. Dubin, Douglas P. Ensch, Taya V. Glotzer, Michael R. Gold, Zachary D. Goldberger, Rakesh Gopinathannair, Eiran Z. Gorodeski, Alejandra Gutiérrez, Juan C. Guzmán, Weijian Huang, Peter B. Imrey, Julia H. Indik, Saima Karim, Peter P. Karpawich, Yaariv Khaykin, Erich L. Kiehl, Jordana Kron, Valentina Kutyifa, Mark S. Link, Joseph E. Marine, Wilfried Mullens, Seung Jung Park, Ratika Parkash, Manuel Patete, Rajeev K. Pathak, Carlos Perona, John Rickard, Mark H. Schoenfeld, Swee‐Chong Seow, Win–Kuang Shen, Morio Shoda, Jagmeet P. Singh, David J. Slotwiner, Arun Raghav Mahankali Sridhar, Uma N Srivatsa, Eric C. Stecker, Tanyanan Tanawuttiwat, W.H. Wilson Tang, Carlos Andres Tapias, Cynthia M. Tracy, Gaurav A. Upadhyay, Niraj Varma, Kevin Vernooy, Pugazhendhi Vijayaraman, Sarah Ann Worsnick, Wojciech Zaręba, Emily P. Zeitler</t>
+          <t>Mina K. Chung, Kristen K. Patton, Chu‐Pak Lau, Alexander Romeno Janner Dal Forno, Sana M. Al‐Khatib, Vanita Arora, Ulrika Birgersdotter‐Green, Yong‐Mei Cha, Eugene H. Chung, Edmond M. Cronin, Anne B. Curtis, Iwona Cygankiewicz, Gopi Dandamudi, Anne M. Dubin, Douglas P. Ensch, Taya V. Glotzer, Michael R. Gold, Zachary D. Goldberger, Rakesh Gopinathannair, Eiran Z. Gorodeski, Alejandra Gutiérrez, Juan C. Guzmán, Weijian Huang, Peter B. Imrey, Julia H. Indik, Saima Karim, Peter P. Karpawich, Yaariv Khaykin, Erich L. Kiehl, Jordana Kron, Valentina Kutyifa, Mark S. Link, Joseph E. Marine, Wilfried Mullens, Seung Jung Park, Ratika Parkash, Manuel Patete, Rajeev K. Pathak, Carlos Perona, John Rickard, Mark H. Schoenfeld, Swee‐Chong Seow, Win‐Kuang Shen, Morio Shoda, Jagmeet P. Singh, David J. Slotwiner, Arun Raghav Mahankali Sridhar, Uma N Srivatsa, Eric C. Stecker, Tanyanan Tanawuttiwat, W.H. Wilson Tang, Carlos Andres Tapias, Cynthia M. Tracy, Gaurav A. Upadhyay, Niraj Varma, Kevin Vernooy, Pugazhendhi Vijayaraman, Sarah Ann Worsnick, Wojciech Zaręba, Emily P. Zeitler</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>79</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mina K. Chung, Kristen K. Patton, Chu‐Pak Lau, Alexander Romeno Janner Dal Forno, Sana M. Al‐Khatib, Vanita Arora, Ulrika Birgersdotter‐Green, Yong‐Mei Cha, Eugene H. Chung, Edmond M. Cronin, Anne B. Curtis, Iwona Cygankiewicz, Gopi Dandamudi, Anne M. Dubin, Douglas P. Ensch, Taya V. Glotzer, Michael R. Gold, Zachary D. Goldberger, Rakesh Gopinathannair, Eiran Z. Gorodeski, Alejandra Gutiérrez, Juan C. Guzmán, Weijian Huang, Peter B. Imrey, Julia H. Indik, Saima Karim, Peter P. Karpawich, Yaariv Khaykin, Erich L. Kiehl, Jordana Kron, Valentina Kutyifa, Mark S. Link, Joseph E. Marine, Wilfried Mullens, Seung–Jung Park, Ratika Parkash, Manuel Patete, Rajeev K. Pathak, Carlos Perona, John Rickard, Mark H. Schoenfeld, Swee‐Chong Seow, Win–Kuang Shen, Morio Shoda, Jagmeet P. Singh, David J. Slotwiner, Arun Raghav Mahankali Sridhar, Uma N Srivatsa, Eric C. Stecker, Tanyanan Tanawuttiwat, W.H. Wilson Tang, Carlos Andres Tapias, Cynthia M. Tracy, Gaurav A. Upadhyay, Niraj Varma, Kevin Vernooy, Pugazhendhi Vijayaraman, Sarah Ann Worsnick, Wojciech Zaręba, Emily P. Zeitler</t>
+          <t>Mina K. Chung, Kristen K. Patton, Chu‐Pak Lau, Alexander Romeno Janner Dal Forno, Sana M. Al‐Khatib, Vanita Arora, Ulrika Birgersdotter‐Green, Yong‐Mei Cha, Eugene H. Chung, Edmond M. Cronin, Anne B. Curtis, Iwona Cygankiewicz, Gopi Dandamudi, Anne M. Dubin, Douglas P. Ensch, Taya V. Glotzer, Michael R. Gold, Zachary D. Goldberger, Rakesh Gopinathannair, Eiran Z. Gorodeski, Alejandra Gutiérrez, Juan C. Guzmán, Weijian Huang, Peter B. Imrey, Julia H. Indik, Saima Karim, Peter P. Karpawich, Yaariv Khaykin, Erich L. Kiehl, Jordana Kron, Valentina Kutyifa, Mark S. Link, Joseph E. Marine, Wilfried Mullens, Seung‐Jung Park, Ratika Parkash, Manuel Patete, Rajeev K. Pathak, Carlos Perona, John Rickard, Mark H. Schoenfeld, Swee‐Chong Seow, Win‐Kuang Shen, Morio Shoda, Jagmeet P. Singh, David J. Slotwiner, Arun Raghav Mahankali Sridhar, Uma N Srivatsa, Eric C. Stecker, Tanyanan Tanawuttiwat, W.H. Wilson Tang, Carlos Andres Tapias, Cynthia M. Tracy, Gaurav A. Upadhyay, Niraj Varma, Kevin Vernooy, Pugazhendhi Vijayaraman, Sarah Ann Worsnick, Wojciech Zaręba, Emily P. Zeitler</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -882,32 +882,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Julia H. Indik, Hugh Calkins</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>University of Arizona College of Medicine, Tucson, Arizona; Johns Hopkins Hospital, Baltimore, Maryland</t>
+          <t>Julia H. Indik</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321787357</t>
+          <t>https://openalex.org/W4386226754</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Frank Marcus (March 23, 1928–December 21, 2022)</t>
+          <t>Introducing the 2023 HRS/APHRS/LAHRS guideline on cardiac physiologic pacing for the avoidance and mitigation of heart failure: Are we entering a new age in pacing?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Heart Rhythm</t>
+          <t>Heart Rhythm O2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -917,7 +912,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.hrthm.2023.01.015</t>
+          <t>https://doi.org/10.1016/j.hroo.2023.08.002</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -942,7 +937,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -952,12 +947,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36842791</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37744941</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.hrthm.2023.01.015</t>
+          <t>https://doi.org/10.1016/j.hroo.2023.08.002</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,42 +964,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Julia H. Indik</t>
+          <t>Julia H. Indik, Hugh Calkins</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>University of Arizona College of Medicine, Tucson, AZ.</t>
+          <t>University of Arizona College of Medicine, Tucson, Arizona; Johns Hopkins Hospital, Baltimore, Maryland</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366351470</t>
+          <t>https://openalex.org/W4321787357</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rhythm Control Treatment for Atrial Fibrillation Is Not Just for the Healthy</t>
+          <t>Frank Marcus (March 23, 1928–December 21, 2022)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Circulation: Arrhythmia and Electrophysiology</t>
+          <t>Heart Rhythm</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circep.123.011949</t>
+          <t>https://doi.org/10.1016/j.hrthm.2023.01.015</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1039,12 +1034,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37073732</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36842791</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circep.123.011949</t>
+          <t>https://doi.org/10.1016/j.hrthm.2023.01.015</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1059,34 +1054,39 @@
           <t>Julia H. Indik</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ.</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386226754</t>
+          <t>https://openalex.org/W4366351470</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Introducing the 2023 HRS/APHRS/LAHRS guideline on cardiac physiologic pacing for the avoidance and mitigation of heart failure: Are we entering a new age in pacing?</t>
+          <t>Rhythm Control Treatment for Atrial Fibrillation Is Not Just for the Healthy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Heart Rhythm O2</t>
+          <t>Circulation: Arrhythmia and Electrophysiology</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.hroo.2023.08.002</t>
+          <t>https://doi.org/10.1161/circep.123.011949</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37744941</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37073732</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.hroo.2023.08.002</t>
+          <t>https://doi.org/10.1161/circep.123.011949</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
